--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_21-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_21-02.xlsx
@@ -116,6 +116,9 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
     <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
   </si>
   <si>
@@ -408,6 +411,12 @@
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7817:0</t>
   </si>
   <si>
     <t>XILONE FORTE 15MG/5ML SYRUP 100 ML</t>
@@ -1535,13 +1544,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1561,17 +1570,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1587,17 +1596,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1613,13 +1622,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
@@ -1631,7 +1640,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1639,13 +1648,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1671,11 +1680,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>47.5</v>
+        <v>41</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1691,17 +1700,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>24</v>
+        <v>47.5</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1709,7 +1718,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1717,17 +1726,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>82.920000000000002</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>2.3300000000000001</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1735,7 +1744,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1743,17 +1752,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1769,17 +1778,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1795,17 +1804,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1813,7 +1822,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1821,17 +1830,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1847,17 +1856,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1865,7 +1874,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1873,17 +1882,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1899,13 +1908,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1931,7 +1940,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1957,7 +1966,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1977,17 +1986,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1995,7 +2004,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2003,17 +2012,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2029,13 +2038,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -2055,13 +2064,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -2081,17 +2090,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2107,17 +2116,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>169.19999999999999</v>
+        <v>80</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2133,13 +2142,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>100</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2159,13 +2168,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2185,13 +2194,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2211,17 +2220,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2229,7 +2238,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2237,17 +2246,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>35.5</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2263,17 +2272,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>119</v>
+        <v>35.5</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2295,11 +2304,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2315,13 +2324,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
@@ -2341,17 +2350,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2373,11 +2382,11 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2393,13 +2402,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2425,7 +2434,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>69.5</v>
+        <v>75</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2445,17 +2454,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>86.5</v>
+        <v>69.5</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2471,17 +2480,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>27</v>
+        <v>86.5</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2489,7 +2498,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2497,17 +2506,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2523,13 +2532,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>38.5</v>
+        <v>58</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
@@ -2549,17 +2558,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2575,17 +2584,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2593,7 +2602,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2601,17 +2610,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2627,13 +2636,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2653,17 +2662,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2679,17 +2688,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2705,17 +2714,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2731,13 +2740,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2757,13 +2766,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2783,17 +2792,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2809,17 +2818,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2835,17 +2844,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2861,17 +2870,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2887,17 +2896,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>31</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2913,17 +2922,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2931,7 +2940,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2939,17 +2948,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>0.25</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2965,17 +2974,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2983,7 +2992,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2991,17 +3000,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3023,11 +3032,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3043,17 +3052,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3075,7 +3084,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3095,17 +3104,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3113,7 +3122,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3121,17 +3130,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3153,7 +3162,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3179,7 +3188,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3199,13 +3208,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3225,13 +3234,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3251,13 +3260,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3277,13 +3286,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3303,13 +3312,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3329,17 +3338,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3347,7 +3356,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3355,17 +3364,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3381,17 +3390,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3407,13 +3416,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3433,13 +3442,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3459,13 +3468,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
@@ -3477,7 +3486,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3485,13 +3494,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3517,11 +3526,11 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3537,17 +3546,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3563,17 +3572,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3589,17 +3598,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3615,17 +3624,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3641,17 +3650,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3667,17 +3676,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3693,17 +3702,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3719,17 +3728,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3745,17 +3754,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>102.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3763,7 +3772,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3777,11 +3786,11 @@
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3789,7 +3798,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3797,13 +3806,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>25</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3829,11 +3838,11 @@
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3849,13 +3858,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3867,7 +3876,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3875,17 +3884,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>98.400000000000006</v>
+        <v>40</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3901,13 +3910,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3919,7 +3928,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3927,17 +3936,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>10</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3959,11 +3968,11 @@
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3985,11 +3994,11 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4011,11 +4020,11 @@
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4037,11 +4046,11 @@
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4057,17 +4066,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4075,7 +4084,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4083,13 +4092,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4101,7 +4110,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4109,13 +4118,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4127,7 +4136,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4141,11 +4150,11 @@
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4153,7 +4162,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4161,17 +4170,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4187,17 +4196,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4213,17 +4222,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4231,7 +4240,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4239,17 +4248,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4265,13 +4274,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4291,13 +4300,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
@@ -4305,37 +4314,89 @@
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
-      <c r="K128" s="11">
-        <v>7110.9399999999996</v>
-      </c>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-    </row>
-    <row r="129" ht="17.25" customHeight="1">
-      <c t="s" r="A129" s="12">
-        <v>163</v>
-      </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c t="s" r="F129" s="13">
+      <c r="A128" s="6">
+        <v>125</v>
+      </c>
+      <c t="s" r="B128" s="7">
         <v>164</v>
       </c>
-      <c r="G129" s="13"/>
-      <c r="H129" s="14"/>
-      <c t="s" r="I129" s="15">
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c t="s" r="H128" s="8">
+        <v>144</v>
+      </c>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="9">
+        <v>35</v>
+      </c>
+      <c r="M128" s="9"/>
+      <c r="N128" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="24.75" customHeight="1">
+      <c r="A129" s="6">
+        <v>126</v>
+      </c>
+      <c t="s" r="B129" s="7">
         <v>165</v>
       </c>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c t="s" r="H129" s="8">
+        <v>53</v>
+      </c>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="9">
+        <v>30</v>
+      </c>
+      <c r="M129" s="9"/>
+      <c r="N129" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="26.25" customHeight="1">
+      <c r="K130" s="11">
+        <v>7265.9399999999996</v>
+      </c>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="12">
+        <v>166</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c t="s" r="F131" s="13">
+        <v>167</v>
+      </c>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
+      <c t="s" r="I131" s="15">
+        <v>168</v>
+      </c>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="383">
+  <mergeCells count="389">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4715,10 +4776,16 @@
     <mergeCell ref="B127:G127"/>
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
-    <mergeCell ref="K128:N128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="I129:N129"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="K130:N130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="I131:N131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
